--- a/log_params.xlsx
+++ b/log_params.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="156">
   <si>
     <t>Report Date</t>
   </si>
@@ -49,6 +49,9 @@
     <t>2023-04-15</t>
   </si>
   <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
     <t>13:13:07</t>
   </si>
   <si>
@@ -157,6 +160,39 @@
     <t>22:56:49</t>
   </si>
   <si>
+    <t>11:41:02</t>
+  </si>
+  <si>
+    <t>11:41:03</t>
+  </si>
+  <si>
+    <t>11:41:04</t>
+  </si>
+  <si>
+    <t>11:41:05</t>
+  </si>
+  <si>
+    <t>12:23:42</t>
+  </si>
+  <si>
+    <t>12:24:03</t>
+  </si>
+  <si>
+    <t>12:24:41</t>
+  </si>
+  <si>
+    <t>12:25:17</t>
+  </si>
+  <si>
+    <t>12:25:34</t>
+  </si>
+  <si>
+    <t>12:25:44</t>
+  </si>
+  <si>
+    <t>12:25:50</t>
+  </si>
+  <si>
     <t>israel_24hr</t>
   </si>
   <si>
@@ -173,6 +209,9 @@
   </si>
   <si>
     <t>Rishon</t>
+  </si>
+  <si>
+    <t>Rehovot</t>
   </si>
   <si>
     <t>PM10</t>
@@ -676,6 +715,44 @@
       dtype='object', name='Timestamp')</t>
   </si>
   <si>
+    <t>Index(['2025-03-05 17:20:00', '2025-03-05 17:40:00', '2025-03-05 17:50:00',
+       '2025-03-05 18:05:00', '2025-03-05 18:20:00', '2025-03-05 18:40:00',
+       '2025-03-05 18:50:00', '2025-03-05 19:10:00', '2025-03-05 19:20:00',
+       '2025-03-05 19:40:00', '2025-03-05 19:50:00', '2025-03-05 20:10:00',
+       '2025-03-05 20:20:00', '2025-03-05 20:40:00', '2025-03-05 20:50:00',
+       '2025-03-05 21:05:00', '2025-03-05 21:20:00', '2025-03-05 21:40:00',
+       '2025-03-05 21:50:00', '2025-03-05 22:10:00', '2025-03-05 22:20:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 14:45:00'], dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 20:00:00', '2025-03-05 20:00:00', '2025-03-05 20:00:00',
+       '2025-03-05 20:30:00', '2025-03-05 20:30:00', '2025-03-05 20:30:00',
+       '2025-03-05 21:00:00', '2025-03-05 21:00:00', '2025-03-05 21:00:00',
+       '2025-03-05 21:30:00', '2025-03-05 21:30:00', '2025-03-05 21:30:00',
+       '2025-03-05 22:00:00', '2025-03-05 22:00:00', '2025-03-05 22:00:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 19:10:00', '2025-03-05 19:20:00', '2025-03-05 19:40:00',
+       '2025-03-05 19:50:00', '2025-03-05 20:10:00', '2025-03-05 20:20:00',
+       '2025-03-05 20:40:00', '2025-03-05 20:50:00', '2025-03-05 21:05:00',
+       '2025-03-05 21:20:00', '2025-03-05 21:40:00', '2025-03-05 21:50:00',
+       '2025-03-05 22:10:00', '2025-03-05 22:20:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 20:30:00', '2025-03-05 22:15:00'], dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 20:05:00', '2025-03-05 20:15:00', '2025-03-05 20:35:00',
+       '2025-03-05 20:45:00', '2025-03-05 21:15:00', '2025-03-05 21:35:00',
+       '2025-03-05 21:45:00', '2025-03-05 22:05:00', '2025-03-05 22:15:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
     <t>[429.7, 428.0, 407.73333333333335, 389.425, 355.21999999999997, 325.8833333333333, 393.2, 463.25, 510.35555555555555, 538.54, 554.8272727272728, 557.1333333333333, 548.4615384615385, 537.0714285714286, 525.8866666666667, 516.3125, 507.8411764705882, 501.65000000000003, 494.5368421052632, 486.95, 479.6952380952381, 472.24090909090904, 460.38260869565215, 441.50416666666666, 423.98400000000004, 407.7192307692308, 392.61851851851856, 378.5964285714286, 365.7655172413793, 354.33, 343.6064516129032, 333.271875, 323.5424242424242, 314.2911764705882, 305.65142857142854, 297.18055555555554, 289.46216216216214, 282.3, 275.7923076923077, 269.72249999999997, 263.51707317073175, 257.3880952380952, 252.0604651162791, 246.61136363636362, 241.5, 236.70000000000002, 231.66382978723405, 222.5212765957447, 213.67234042553193, 206.4127659574468, 199.5574468085106, 195.10851063829787, 191.68085106382978, 174.96382978723406, 154.7340425531915, 136.11063829787236]</t>
   </si>
   <si>
@@ -794,6 +871,27 @@
   </si>
   <si>
     <t>[130.1718309859155, 130.72957746478872, 131.09014084507044, 131.57464788732395, 132.02957746478873, 132.46338028169015, 132.82042253521126, 133.17605633802816, 133.57746478873239, 134.01830985915493, 134.46338028169015, 134.8774647887324, 135.0049295774648, 135.0725352112676, 135.11478873239437, 135.15845070422534, 135.20915492957747, 135.29507042253522, 135.2380281690141, 135.30281690140845, 135.45845070422533, 135.49507042253524, 135.47957746478875, 135.39225352112678, 135.48239436619718, 135.65, 135.28169014084506, 134.95845070422533, 134.76338028169013, 134.58521126760564, 134.3767605633803, 134.16549295774647, 133.95845070422533, 133.8225352112676, 133.6781690140845, 133.62464788732393, 133.6, 133.39154929577464, 133.23661971830984, 133.1161971830986, 133.0211267605634, 132.89577464788732, 132.73591549295776, 132.60985915492958, 132.45070422535213, 132.41619718309857, 132.33732394366197, 132.1781690140845, 131.85281690140843, 131.60704225352114, 131.2612676056338, 130.7661971830986, 130.33943661971833, 130.02605633802818]</t>
+  </si>
+  <si>
+    <t>[37.72050420168067, 38.25949579831933, 38.784705882352945, 39.32151260504202, 40.05813559322034, 40.62279661016949, 41.14305084745763, 41.69076271186441, 42.21694915254238, 42.6921186440678, 43.18203389830508, 43.6685593220339, 44.13822033898305, 44.48364406779661, 44.605508474576276, 44.5192372881356, 44.59905982905983, 44.76675213675214, 44.929658119658114, 45.0525641025641, 45.18452991452992]</t>
+  </si>
+  <si>
+    <t>[81.155]</t>
+  </si>
+  <si>
+    <t>[132.65035460992908, 133.2612676056338, 133.86363636363637, 135.80428571428573, 135.31843971631207, 134.83943661971833, 135.44113475177306, 134.8281690140845, 134.2237762237762, 135.31489361702128, 134.65774647887324, 134.00979020979022, 135.03120567375885, 134.37535211267604, 133.72867132867134]</t>
+  </si>
+  <si>
+    <t>[131.44661016949152, 133.9779661016949, 136.2449152542373, 138.57033898305085, 140.76101694915255, 142.83813559322036, 144.55084745762713, 145.3728813559322, 145.33050847457628, 146.2948717948718, 147.22222222222223, 148.1094017094017, 148.76410256410256, 149.40854700854703]</t>
+  </si>
+  <si>
+    <t>[131.57368421052632, 131.02631578947367]</t>
+  </si>
+  <si>
+    <t>[397.6]</t>
+  </si>
+  <si>
+    <t>[37.8018691588785, 38.32616822429906, 38.60467289719626, 38.845794392523366, 39.35047619047619, 39.59238095238095, 39.80190476190476, 40.06, 40.32380952380952]</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1188,22 +1286,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>130</v>
@@ -1214,22 +1312,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>130</v>
@@ -1240,22 +1338,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <v>130</v>
@@ -1266,22 +1364,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>130</v>
@@ -1292,22 +1390,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>37.5</v>
@@ -1318,22 +1416,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H7">
         <v>37.5</v>
@@ -1344,22 +1442,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>130</v>
@@ -1370,22 +1468,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H9">
         <v>130</v>
@@ -1396,22 +1494,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H10">
         <v>130</v>
@@ -1422,22 +1520,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H11">
         <v>130</v>
@@ -1448,22 +1546,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H12">
         <v>37.5</v>
@@ -1474,22 +1572,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H13">
         <v>37.5</v>
@@ -1500,22 +1598,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H14">
         <v>130</v>
@@ -1526,22 +1624,22 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H15">
         <v>130</v>
@@ -1552,22 +1650,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H16">
         <v>130</v>
@@ -1578,22 +1676,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -1604,22 +1702,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H18">
         <v>37.5</v>
@@ -1630,22 +1728,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H19">
         <v>37.5</v>
@@ -1656,22 +1754,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H20">
         <v>37.5</v>
@@ -1682,22 +1780,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H21">
         <v>37.5</v>
@@ -1708,22 +1806,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H22">
         <v>130</v>
@@ -1734,22 +1832,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H23">
         <v>130</v>
@@ -1760,22 +1858,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H24">
         <v>130</v>
@@ -1786,22 +1884,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H25">
         <v>130</v>
@@ -1812,22 +1910,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>130</v>
@@ -1838,22 +1936,22 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H27">
         <v>130</v>
@@ -1864,22 +1962,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H28">
         <v>130</v>
@@ -1890,22 +1988,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H29">
         <v>130</v>
@@ -1916,22 +2014,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H30">
         <v>37.5</v>
@@ -1942,22 +2040,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="H31">
         <v>37.5</v>
@@ -1968,22 +2066,22 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H32">
         <v>37.5</v>
@@ -1994,22 +2092,22 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H33">
         <v>37.5</v>
@@ -2020,22 +2118,22 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H34">
         <v>130</v>
@@ -2046,22 +2144,22 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="H35">
         <v>130</v>
@@ -2072,22 +2170,22 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H36">
         <v>130</v>
@@ -2098,22 +2196,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H37">
         <v>130</v>
@@ -2124,22 +2222,22 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H38">
         <v>130</v>
@@ -2150,22 +2248,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H39">
         <v>130</v>
@@ -2176,22 +2274,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H40">
         <v>130</v>
@@ -2202,22 +2300,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="H41">
         <v>130</v>
@@ -2228,22 +2326,22 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H42">
         <v>37.5</v>
@@ -2254,22 +2352,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H43">
         <v>37.5</v>
@@ -2280,22 +2378,22 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="H44">
         <v>37.5</v>
@@ -2306,22 +2404,22 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="H45">
         <v>37.5</v>
@@ -2332,22 +2430,22 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H46">
         <v>130</v>
@@ -2358,22 +2456,22 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="H47">
         <v>130</v>
@@ -2384,22 +2482,22 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H48">
         <v>130</v>
@@ -2410,24 +2508,362 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="F49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49">
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62">
         <v>130</v>
       </c>
     </row>

--- a/log_params.xlsx
+++ b/log_params.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="189">
   <si>
     <t>Report Date</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2025-03-07</t>
   </si>
   <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
     <t>13:13:07</t>
   </si>
   <si>
@@ -191,6 +194,63 @@
   </si>
   <si>
     <t>12:25:50</t>
+  </si>
+  <si>
+    <t>18:32:18</t>
+  </si>
+  <si>
+    <t>18:32:37</t>
+  </si>
+  <si>
+    <t>18:32:55</t>
+  </si>
+  <si>
+    <t>18:35:01</t>
+  </si>
+  <si>
+    <t>18:35:31</t>
+  </si>
+  <si>
+    <t>18:35:42</t>
+  </si>
+  <si>
+    <t>18:35:44</t>
+  </si>
+  <si>
+    <t>18:36:11</t>
+  </si>
+  <si>
+    <t>18:36:16</t>
+  </si>
+  <si>
+    <t>18:36:26</t>
+  </si>
+  <si>
+    <t>20:51:11</t>
+  </si>
+  <si>
+    <t>20:51:13</t>
+  </si>
+  <si>
+    <t>20:51:14</t>
+  </si>
+  <si>
+    <t>20:51:16</t>
+  </si>
+  <si>
+    <t>21:01:18</t>
+  </si>
+  <si>
+    <t>21:01:20</t>
+  </si>
+  <si>
+    <t>21:01:21</t>
+  </si>
+  <si>
+    <t>21:01:23</t>
+  </si>
+  <si>
+    <t>23:35:31</t>
   </si>
   <si>
     <t>israel_24hr</t>
@@ -753,6 +813,98 @@
       dtype='object', name='Time')</t>
   </si>
   <si>
+    <t>Index(['2025-03-05 20:05:00', '2025-03-05 20:15:00', '2025-03-05 20:35:00',
+       '2025-03-05 20:45:00', '2025-03-05 21:15:00', '2025-03-05 21:35:00',
+       '2025-03-05 21:45:00', '2025-03-05 22:05:00', '2025-03-05 22:15:00',
+       '2025-03-05 22:35:00', '2025-03-05 22:45:00', '2025-03-05 23:05:00',
+       '2025-03-05 23:15:00', '2025-03-05 23:35:00', '2025-03-05 23:45:00',
+       '2025-03-05 23:55:00', '2025-03-06 00:05:00', '2025-03-06 00:15:00',
+       '2025-03-06 00:35:00', '2025-03-06 00:45:00', '2025-03-06 01:05:00',
+       '2025-03-06 01:15:00', '2025-03-06 01:40:00', '2025-03-06 01:50:00',
+       '2025-03-06 02:10:00', '2025-03-06 02:20:00', '2025-03-06 02:40:00',
+       '2025-03-06 02:50:00', '2025-03-06 03:10:00', '2025-03-06 03:20:00',
+       '2025-03-06 03:40:00', '2025-03-06 03:50:00', '2025-03-06 04:10:00',
+       '2025-03-06 04:20:00', '2025-03-06 04:40:00', '2025-03-06 04:50:00',
+       '2025-03-06 05:10:00', '2025-03-06 05:20:00', '2025-03-06 05:40:00',
+       '2025-03-06 05:50:00', '2025-03-06 06:10:00', '2025-03-06 06:20:00',
+       '2025-03-06 06:40:00', '2025-03-06 06:50:00', '2025-03-06 07:10:00',
+       '2025-03-06 07:20:00', '2025-03-06 07:40:00', '2025-03-06 07:50:00',
+       '2025-03-06 08:10:00', '2025-03-06 08:20:00', '2025-03-06 08:40:00',
+       '2025-03-06 08:50:00', '2025-03-06 09:10:00', '2025-03-06 09:20:00',
+       '2025-03-06 09:40:00', '2025-03-06 09:50:00', '2025-03-06 10:10:00',
+       '2025-03-06 10:20:00', '2025-03-06 10:40:00', '2025-03-06 10:50:00',
+       '2025-03-06 11:10:00', '2025-03-06 11:20:00', '2025-03-06 11:40:00',
+       '2025-03-06 11:50:00', '2025-03-06 12:10:00', '2025-03-06 12:20:00',
+       '2025-03-06 12:35:00', '2025-03-06 12:45:00', '2025-03-06 13:05:00',
+       '2025-03-06 13:15:00', '2025-03-06 13:35:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 17:20:00', '2025-03-05 17:40:00', '2025-03-05 17:50:00',
+       '2025-03-05 18:05:00', '2025-03-05 18:20:00', '2025-03-05 18:40:00',
+       '2025-03-05 18:50:00', '2025-03-05 19:10:00', '2025-03-05 19:20:00',
+       '2025-03-05 19:40:00',
+       ...
+       '2025-03-06 12:55:00', '2025-03-06 13:10:00', '2025-03-06 13:20:00',
+       '2025-03-06 13:40:00', '2025-03-06 13:50:00', '2025-03-06 13:55:00',
+       '2025-03-06 14:10:00', '2025-03-06 14:20:00', '2025-03-06 14:40:00',
+       '2025-03-06 14:50:00'],
+      dtype='object', name='Time', length=108)</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 14:45:00', '2025-03-06 01:40:00'], dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 20:00:00', '2025-03-05 20:00:00', '2025-03-05 20:00:00',
+       '2025-03-05 20:30:00', '2025-03-05 20:30:00', '2025-03-05 20:30:00',
+       '2025-03-05 21:00:00', '2025-03-05 21:00:00', '2025-03-05 21:00:00',
+       '2025-03-05 21:30:00', '2025-03-05 21:30:00', '2025-03-05 21:30:00',
+       '2025-03-05 22:00:00', '2025-03-05 22:00:00', '2025-03-05 22:00:00',
+       '2025-03-05 22:30:00', '2025-03-05 22:30:00', '2025-03-05 22:30:00',
+       '2025-03-05 23:00:00', '2025-03-05 23:00:00', '2025-03-05 23:00:00',
+       '2025-03-05 23:30:00', '2025-03-05 23:30:00', '2025-03-05 23:30:00',
+       '2025-03-06 00:00:00', '2025-03-06 00:00:00', '2025-03-06 00:00:00',
+       '2025-03-06 00:30:00', '2025-03-06 00:30:00', '2025-03-06 00:30:00',
+       '2025-03-06 01:00:00', '2025-03-06 01:00:00', '2025-03-06 01:00:00',
+       '2025-03-06 01:30:00', '2025-03-06 01:30:00', '2025-03-06 01:30:00',
+       '2025-03-06 02:00:00', '2025-03-06 02:00:00', '2025-03-06 02:00:00',
+       '2025-03-06 02:30:00', '2025-03-06 02:30:00', '2025-03-06 02:30:00',
+       '2025-03-06 03:00:00', '2025-03-06 03:00:00', '2025-03-06 03:00:00',
+       '2025-03-06 03:30:00', '2025-03-06 03:30:00', '2025-03-06 03:30:00',
+       '2025-03-06 04:00:00', '2025-03-06 04:00:00', '2025-03-06 04:00:00',
+       '2025-03-06 04:30:00', '2025-03-06 04:30:00', '2025-03-06 04:30:00',
+       '2025-03-06 05:00:00', '2025-03-06 05:00:00', '2025-03-06 05:00:00',
+       '2025-03-06 05:30:00', '2025-03-06 05:30:00', '2025-03-06 05:30:00',
+       '2025-03-06 06:00:00', '2025-03-06 06:00:00', '2025-03-06 06:00:00',
+       '2025-03-06 06:30:00', '2025-03-06 06:30:00', '2025-03-06 06:30:00',
+       '2025-03-06 07:00:00', '2025-03-06 07:00:00', '2025-03-06 07:00:00',
+       '2025-03-06 07:30:00', '2025-03-06 07:30:00', '2025-03-06 07:30:00',
+       '2025-03-06 08:00:00', '2025-03-06 08:00:00', '2025-03-06 08:00:00',
+       '2025-03-06 08:30:00', '2025-03-06 08:30:00', '2025-03-06 08:30:00',
+       '2025-03-06 09:00:00', '2025-03-06 09:00:00', '2025-03-06 09:00:00',
+       '2025-03-06 09:30:00', '2025-03-06 09:30:00', '2025-03-06 09:30:00',
+       '2025-03-06 10:00:00', '2025-03-06 10:00:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 19:10:00', '2025-03-05 19:20:00', '2025-03-05 19:40:00',
+       '2025-03-05 19:50:00', '2025-03-05 20:10:00', '2025-03-05 20:20:00',
+       '2025-03-05 20:40:00', '2025-03-05 20:50:00', '2025-03-05 21:05:00',
+       '2025-03-05 21:20:00',
+       ...
+       '2025-03-06 12:55:00', '2025-03-06 13:10:00', '2025-03-06 13:20:00',
+       '2025-03-06 13:40:00', '2025-03-06 13:50:00', '2025-03-06 13:55:00',
+       '2025-03-06 14:10:00', '2025-03-06 14:20:00', '2025-03-06 14:40:00',
+       '2025-03-06 14:50:00'],
+      dtype='object', name='Time', length=101)</t>
+  </si>
+  <si>
+    <t>Index(['2025-03-05 20:30:00', '2025-03-05 22:15:00', '2025-03-06 01:35:00',
+       '2025-03-06 06:35:00', '2025-03-06 12:40:00', '2025-03-06 12:50:00',
+       '2025-03-06 13:00:00', '2025-03-06 13:05:00'],
+      dtype='object', name='Time')</t>
+  </si>
+  <si>
     <t>[429.7, 428.0, 407.73333333333335, 389.425, 355.21999999999997, 325.8833333333333, 393.2, 463.25, 510.35555555555555, 538.54, 554.8272727272728, 557.1333333333333, 548.4615384615385, 537.0714285714286, 525.8866666666667, 516.3125, 507.8411764705882, 501.65000000000003, 494.5368421052632, 486.95, 479.6952380952381, 472.24090909090904, 460.38260869565215, 441.50416666666666, 423.98400000000004, 407.7192307692308, 392.61851851851856, 378.5964285714286, 365.7655172413793, 354.33, 343.6064516129032, 333.271875, 323.5424242424242, 314.2911764705882, 305.65142857142854, 297.18055555555554, 289.46216216216214, 282.3, 275.7923076923077, 269.72249999999997, 263.51707317073175, 257.3880952380952, 252.0604651162791, 246.61136363636362, 241.5, 236.70000000000002, 231.66382978723405, 222.5212765957447, 213.67234042553193, 206.4127659574468, 199.5574468085106, 195.10851063829787, 191.68085106382978, 174.96382978723406, 154.7340425531915, 136.11063829787236]</t>
   </si>
   <si>
@@ -892,6 +1044,27 @@
   </si>
   <si>
     <t>[37.8018691588785, 38.32616822429906, 38.60467289719626, 38.845794392523366, 39.35047619047619, 39.59238095238095, 39.80190476190476, 40.06, 40.32380952380952]</t>
+  </si>
+  <si>
+    <t>[37.8018691588785, 38.32616822429906, 38.60467289719626, 38.845794392523366, 39.35047619047619, 39.59238095238095, 39.80190476190476, 40.06, 40.32380952380952, 40.51809523809524, 40.735238095238095, 40.794285714285714, 40.78952380952381, 40.735238095238095, 40.642857142857146, 40.54571428571429, 40.44380952380952, 40.34285714285714, 40.25047619047619, 40.166666666666664, 40.10476190476191, 40.04761904761905, 40.0247619047619, 40.000952380952384, 39.96285714285714, 39.92666666666666, 39.892380952380954, 39.854285714285716, 39.80380952380953, 39.90096153846154, 39.848076923076924, 39.79615384615385, 39.90194174757281, 39.85048543689321, 39.94509803921569, 39.8921568627451, 39.99108910891089, 39.92871287128713, 39.998, 39.925, 40.002020202020205, 39.92626262626263, 40.00612244897959, 39.94183673469387, 40.049484536082474, 39.97938144329897, 40.0875, 40.01770833333333, 40.13894736842106, 40.07157894736842, 40.1936170212766, 40.12765957446808, 40.25483870967742, 40.155913978494624, 40.061290322580646, 39.95591397849462, 39.833333333333336, 39.70645161290322, 39.56774193548387, 39.43010752688172, 39.2505376344086, 39.08817204301076, 38.86129032258064, 38.660215053763444, 38.51720430107527, 38.38279569892473, 38.229787234042554, 38.07340425531915, 37.89255319148936, 37.717021276595744, 37.53510638297872]</t>
+  </si>
+  <si>
+    <t>[37.72050420168067, 38.25949579831933, 38.784705882352945, 39.32151260504202, 40.05813559322034, 40.62279661016949, 41.14305084745763, 41.69076271186441, 42.21694915254238, 42.6921186440678, 43.18203389830508, 43.6685593220339, 44.13822033898305, 44.48364406779661, 44.605508474576276, 44.5192372881356, 44.59905982905983, 44.76675213675214, 44.929658119658114, 45.0525641025641, 45.18452991452992, 45.381452991452996, 45.6482905982906, 45.8302564102564, 45.952564102564104, 45.93188034188034, 45.897948717948715, 45.85982905982906, 45.805470085470084, 45.74863247863247, 45.69435897435897, 45.647350427350425, 45.62675213675214, 45.61538461538461, 45.59111111111111, 45.39728813559322, 45.20008403361345, 45.172941176470594, 45.14403361344538, 44.950916666666664, 44.92075, 44.89508333333333, 44.86741666666667, 44.667355371900825, 44.81791666666667, 44.6199173553719, 44.424098360655734, 44.56454545454546, 44.37311475409837, 44.35704918032787, 44.34213114754098, 44.32147540983606, 44.30122950819672, 44.27696721311476, 44.25483606557377, 44.23614754098361, 44.21852459016393, 44.19754098360656, 44.175245901639336, 44.15040983606558, 44.12672131147541, 44.106065573770486, 44.08336065573771, 44.20892561983471, 44.18495867768595, 44.15735537190083, 44.130991735537194, 44.10735537190082, 44.080413223140496, 44.05107438016528, 44.019504132231404, 43.97512396694216, 43.92818181818182, 43.87677685950413, 43.81776859504132, 43.75140495867769, 43.680743801652895, 43.600165289256196, 43.531487603305784, 43.470743801652894, 43.397520661157024, 43.32173553719009, 43.257603305785125, 43.20776859504132, 43.115289256198345, 43.00231404958677, 42.86685950413223, 42.73429752066115, 42.60190082644628, 42.436115702479334, 42.25842975206612, 42.09611570247934, 41.90338842975206, 41.703553719008255, 41.52603305785124, 41.35545454545455, 41.22553719008265, 41.11413223140495, 40.92663865546219, 40.76546218487395, 40.59873949579832, 40.39525423728813, 40.20406779661017, 40.00779661016949, 39.80203389830509, 39.56220338983051, 39.11169491525424, 38.069830508474574]</t>
+  </si>
+  <si>
+    <t>[81.155, 62.07]</t>
+  </si>
+  <si>
+    <t>[132.65035460992908, 133.2612676056338, 133.86363636363637, 135.80428571428573, 135.31843971631207, 134.83943661971833, 135.44113475177306, 134.8281690140845, 134.2237762237762, 135.31489361702128, 134.65774647887324, 134.00979020979022, 135.03120567375885, 134.37535211267604, 133.72867132867134, 134.72482269503547, 134.03943661971832, 133.36363636363637, 134.46312056737588, 133.77957746478873, 133.1055944055944, 134.96, 134.34255319148934, 133.7338028169014, 134.38652482269504, 133.83098591549296, 133.28321678321677, 134.56028368794327, 134.0323943661972, 133.5118881118881, 134.70496453900708, 134.16338028169014, 133.62937062937064, 134.95673758865246, 134.44366197183098, 133.93776223776223, 135.15248226950354, 134.61478873239437, 134.0846153846154, 135.27872340425532, 134.7112676056338, 134.15174825174824, 135.88357142857143, 135.28297872340426, 134.6908450704225, 135.20780141843971, 134.5838028169014, 133.96853146853147, 135.04397163120566, 134.39366197183097, 133.75244755244753, 134.79929078014183, 134.12535211267604, 133.46083916083916, 134.545390070922, 133.86830985915492, 133.2006993006993, 134.2851063829787, 133.5901408450704, 132.90489510489508, 134.07304964539006, 133.3823943661972, 132.7013986013986, 133.8730496453901, 133.1880281690141, 132.5125874125874, 133.44893617021276, 132.7450704225352, 132.05104895104895, 133.1496453900709, 132.44014084507043, 131.74055944055942, 132.71347517730499, 132.08943661971833, 131.47412587412586, 132.55531914893618, 131.9380281690141, 131.32937062937063, 132.3028368794326, 131.67957746478874, 131.06503496503495, 131.81205673758865, 131.18028169014087, 130.55734265734267, 130.9304964539007, 130.29999999999998]</t>
+  </si>
+  <si>
+    <t>[131.44661016949152, 133.9779661016949, 136.2449152542373, 138.57033898305085, 140.76101694915255, 142.83813559322036, 144.55084745762713, 145.3728813559322, 145.33050847457628, 146.2948717948718, 147.22222222222223, 148.1094017094017, 148.76410256410256, 149.40854700854703, 150.29145299145299, 151.43418803418803, 152.25811965811965, 152.9752136752137, 153.18974358974359, 153.37008547008546, 153.52649572649574, 153.69487179487183, 153.84786324786324, 154.04957264957267, 154.28034188034187, 154.5059829059829, 154.78461538461542, 155.05726495726492, 154.32711864406778, 153.58235294117645, 153.818487394958, 154.07563025210084, 153.32416666666668, 153.51083333333332, 153.70666666666665, 153.88500000000002, 153.0801652892562, 154.17, 153.33388429752065, 152.4745901639344, 153.49586776859505, 152.63360655737705, 152.73852459016393, 152.8188524590164, 152.83770491803278, 152.86803278688527, 152.91803278688525, 152.99508196721314, 153.10245901639345, 153.22377049180326, 153.31803278688523, 153.4090163934426, 153.4909836065574, 153.6327868852459, 153.78196721311477, 153.91065573770493, 154.9099173553719, 155.03057851239666, 155.10578512396694, 155.17438016528928, 155.2471074380165, 155.2694214876033, 155.28760330578513, 155.3107438016529, 155.2586776859504, 155.18677685950416, 155.11900826446282, 155.00578512396694, 154.902479338843, 154.77190082644626, 154.54297520661157, 154.38677685950412, 154.2677685950413, 154.08760330578514, 153.89586776859505, 153.82561983471075, 153.87603305785123, 153.70413223140497, 153.4090909090909, 153.04297520661154, 152.69586776859504, 152.35702479338843, 151.83553719008262, 151.26942148760332, 150.8099173553719, 150.21900826446281, 149.57272727272726, 149.02396694214877, 148.52314049586775, 148.15537190082645, 147.83388429752065, 147.7235294117647, 147.28991596638656, 146.78739495798317, 146.24915254237285, 145.5406779661017, 144.78898305084743, 144.01016949152543, 143.00423728813558, 140.88474576271184, 135.71355932203392]</t>
+  </si>
+  <si>
+    <t>[131.57368421052632, 131.02631578947367, 131.87894736842105, 158.84, 204.37272727272727, 192.0, 181.96153846153845, 173.91428571428574]</t>
+  </si>
+  <si>
+    <t>[397.6, 291.73333333333335]</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1286,22 +1459,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>130</v>
@@ -1312,22 +1485,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="H3">
         <v>130</v>
@@ -1338,22 +1511,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H4">
         <v>130</v>
@@ -1364,22 +1537,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>130</v>
@@ -1390,22 +1563,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H6">
         <v>37.5</v>
@@ -1416,22 +1589,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>37.5</v>
@@ -1442,22 +1615,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="H8">
         <v>130</v>
@@ -1468,22 +1641,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="H9">
         <v>130</v>
@@ -1494,22 +1667,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="H10">
         <v>130</v>
@@ -1520,22 +1693,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H11">
         <v>130</v>
@@ -1546,22 +1719,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="H12">
         <v>37.5</v>
@@ -1572,22 +1745,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <v>37.5</v>
@@ -1598,22 +1771,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="H14">
         <v>130</v>
@@ -1624,22 +1797,22 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="H15">
         <v>130</v>
@@ -1650,22 +1823,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="H16">
         <v>130</v>
@@ -1676,22 +1849,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -1702,22 +1875,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="H18">
         <v>37.5</v>
@@ -1728,22 +1901,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H19">
         <v>37.5</v>
@@ -1754,22 +1927,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="H20">
         <v>37.5</v>
@@ -1780,22 +1953,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="H21">
         <v>37.5</v>
@@ -1806,22 +1979,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="H22">
         <v>130</v>
@@ -1832,22 +2005,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="H23">
         <v>130</v>
@@ -1858,22 +2031,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="H24">
         <v>130</v>
@@ -1884,22 +2057,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="H25">
         <v>130</v>
@@ -1910,22 +2083,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="H26">
         <v>130</v>
@@ -1936,22 +2109,22 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="H27">
         <v>130</v>
@@ -1962,22 +2135,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="H28">
         <v>130</v>
@@ -1988,22 +2161,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="H29">
         <v>130</v>
@@ -2014,22 +2187,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="H30">
         <v>37.5</v>
@@ -2040,22 +2213,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="H31">
         <v>37.5</v>
@@ -2066,22 +2239,22 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="H32">
         <v>37.5</v>
@@ -2092,22 +2265,22 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="H33">
         <v>37.5</v>
@@ -2118,22 +2291,22 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="H34">
         <v>130</v>
@@ -2144,22 +2317,22 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H35">
         <v>130</v>
@@ -2170,22 +2343,22 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H36">
         <v>130</v>
@@ -2196,22 +2369,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H37">
         <v>130</v>
@@ -2222,22 +2395,22 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="H38">
         <v>130</v>
@@ -2248,22 +2421,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="H39">
         <v>130</v>
@@ -2274,22 +2447,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H40">
         <v>130</v>
@@ -2300,22 +2473,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H41">
         <v>130</v>
@@ -2326,22 +2499,22 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="H42">
         <v>37.5</v>
@@ -2352,22 +2525,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="H43">
         <v>37.5</v>
@@ -2378,22 +2551,22 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H44">
         <v>37.5</v>
@@ -2404,22 +2577,22 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="H45">
         <v>37.5</v>
@@ -2430,22 +2603,22 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="H46">
         <v>130</v>
@@ -2456,22 +2629,22 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="H47">
         <v>130</v>
@@ -2482,22 +2655,22 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H48">
         <v>130</v>
@@ -2508,22 +2681,22 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H49">
         <v>130</v>
@@ -2534,22 +2707,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="H50">
         <v>37.5</v>
@@ -2560,22 +2733,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H51">
         <v>37.5</v>
@@ -2586,22 +2759,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="H52">
         <v>130</v>
@@ -2612,22 +2785,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G53" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H53">
         <v>130</v>
@@ -2638,22 +2811,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="H54">
         <v>130</v>
@@ -2664,22 +2837,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G55" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H55">
         <v>130</v>
@@ -2690,22 +2863,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H56">
         <v>37.5</v>
@@ -2716,22 +2889,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="H57">
         <v>37.5</v>
@@ -2742,22 +2915,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G58" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H58">
         <v>37.5</v>
@@ -2768,22 +2941,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="H59">
         <v>130</v>
@@ -2794,22 +2967,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H60">
         <v>130</v>
@@ -2820,22 +2993,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="H61">
         <v>130</v>
@@ -2846,24 +3019,518 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="E62" t="s">
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" t="s">
+        <v>185</v>
+      </c>
+      <c r="H66">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
         <v>66</v>
       </c>
-      <c r="F62" t="s">
-        <v>104</v>
-      </c>
-      <c r="G62" t="s">
-        <v>154</v>
-      </c>
-      <c r="H62">
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" t="s">
+        <v>185</v>
+      </c>
+      <c r="H77">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" t="s">
+        <v>186</v>
+      </c>
+      <c r="H78">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" t="s">
+        <v>187</v>
+      </c>
+      <c r="H79">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" t="s">
+        <v>188</v>
+      </c>
+      <c r="H80">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="s">
+        <v>185</v>
+      </c>
+      <c r="H81">
         <v>130</v>
       </c>
     </row>
